--- a/Documentation/EECS 582 Requirements.xlsx
+++ b/Documentation/EECS 582 Requirements.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
   <si>
     <t>REQUIREMENTS STACK:</t>
   </si>
@@ -52,37 +52,19 @@
     <t>Find text dataset to train model on</t>
   </si>
   <si>
-    <t>name teehee</t>
+    <t>Write Training Algorithm</t>
   </si>
   <si>
     <t>Train model on dataset</t>
   </si>
   <si>
-    <t>We have little reference for how long it will take to
-train model on datasets specific to our purposes,
-so it likely won't take 21 points, just a placeholder
-for uncertainty</t>
-  </si>
-  <si>
-    <t>objective</t>
-  </si>
-  <si>
     <t>Design output data format</t>
   </si>
   <si>
-    <t>novelty</t>
-  </si>
-  <si>
     <t>Image-&gt;alt-text intermediate step</t>
   </si>
   <si>
-    <t>last week</t>
-  </si>
-  <si>
     <t>Create text webscraper</t>
-  </si>
-  <si>
-    <t>next week</t>
   </si>
   <si>
     <t>Create image webscraper</t>
@@ -369,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -398,18 +380,12 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -753,12 +729,12 @@
         <v>1.0</v>
       </c>
       <c r="F3" s="8">
-        <f>SUM(C3:C7)</f>
+        <f>SUM(C3:C8)</f>
         <v>33</v>
       </c>
       <c r="H3" s="9">
-        <f>SUM(C3:C22)</f>
-        <v>155</v>
+        <f>SUM(C3:C23)</f>
+        <v>161</v>
       </c>
     </row>
     <row r="4">
@@ -796,98 +772,81 @@
         <v>1.0</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="J5" s="4" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="7">
+        <v>13.0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="7">
-        <v>21.0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="E6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="4" t="s">
+      <c r="C7" s="7">
+        <v>8.0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="J7" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="11">
-        <v>6.0</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="12">
-        <v>5.0</v>
-      </c>
-      <c r="D8" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="E8" s="12">
-        <v>2.0</v>
-      </c>
-      <c r="F8" s="14">
-        <f>SUM(C8:C14)</f>
-        <v>31</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="C8" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="F8" s="8"/>
     </row>
     <row r="9">
       <c r="A9" s="11">
         <v>7.0</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C9" s="12">
         <v>5.0</v>
       </c>
-      <c r="D9" s="13">
-        <v>2.0</v>
+      <c r="D9" s="11">
+        <v>1.0</v>
       </c>
       <c r="E9" s="12">
         <v>2.0</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="J9" s="4" t="s">
-        <v>21</v>
+      <c r="F9" s="13">
+        <f>SUM(C9:C15)</f>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
@@ -895,233 +854,251 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C10" s="12">
-        <v>5.0</v>
-      </c>
-      <c r="D10" s="13">
+        <v>8.0</v>
+      </c>
+      <c r="D10" s="11">
         <v>2.0</v>
       </c>
       <c r="E10" s="12">
         <v>2.0</v>
       </c>
-      <c r="F10" s="14"/>
+      <c r="F10" s="13"/>
     </row>
     <row r="11">
-      <c r="A11" s="15">
+      <c r="A11" s="11">
         <v>9.0</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C11" s="12">
-        <v>5.0</v>
-      </c>
-      <c r="D11" s="13">
+        <v>8.0</v>
+      </c>
+      <c r="D11" s="11">
         <v>2.0</v>
       </c>
       <c r="E11" s="12">
         <v>2.0</v>
       </c>
-      <c r="F11" s="14"/>
+      <c r="F11" s="13"/>
     </row>
     <row r="12">
       <c r="A12" s="11">
         <v>10.0</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C12" s="12">
         <v>5.0</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="11">
         <v>2.0</v>
       </c>
       <c r="E12" s="12">
         <v>2.0</v>
       </c>
-      <c r="F12" s="14"/>
-    </row>
-    <row r="13" ht="18.75" customHeight="1">
-      <c r="A13" s="13">
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="11">
         <v>11.0</v>
       </c>
       <c r="B13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="D13" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="E13" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" ht="18.75" customHeight="1">
+      <c r="A14" s="11">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="D14" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="E14" s="14">
+        <v>2.0</v>
+      </c>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" ht="17.25" customHeight="1">
+      <c r="A15" s="11">
+        <v>13.0</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="D15" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="E15" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="15">
+        <v>14.0</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="D16" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="E16" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="F16" s="17">
+        <f>SUM(C16:C19)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="15">
+        <v>15.0</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="D17" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="E17" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="15">
+        <v>16.0</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="16">
+        <v>8.0</v>
+      </c>
+      <c r="D18" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="E18" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="15">
+        <v>17.0</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="12">
-        <v>3.0</v>
-      </c>
-      <c r="D13" s="13">
-        <v>2.0</v>
-      </c>
-      <c r="E13" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="F13" s="14"/>
-    </row>
-    <row r="14" ht="17.25" customHeight="1">
-      <c r="A14" s="13">
-        <v>12.0</v>
-      </c>
-      <c r="B14" s="16" t="s">
+      <c r="C19" s="16">
+        <v>13.0</v>
+      </c>
+      <c r="D19" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="E19" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="F19" s="17"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="18">
+        <v>18.0</v>
+      </c>
+      <c r="B20" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="12">
-        <v>3.0</v>
-      </c>
-      <c r="D14" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="E14" s="12">
-        <v>2.0</v>
-      </c>
-      <c r="F14" s="14"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="17">
-        <v>13.0</v>
-      </c>
-      <c r="B15" s="18" t="s">
+      <c r="C20" s="19">
+        <v>21.0</v>
+      </c>
+      <c r="D20" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="E20" s="19">
+        <v>4.0</v>
+      </c>
+      <c r="F20" s="20"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="21">
+        <v>19.0</v>
+      </c>
+      <c r="B21" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="18">
-        <v>2.0</v>
-      </c>
-      <c r="D15" s="17">
-        <v>3.0</v>
-      </c>
-      <c r="E15" s="18">
-        <v>3.0</v>
-      </c>
-      <c r="F15" s="19">
-        <f>SUM(C15:C18)</f>
+      <c r="C21" s="23">
+        <v>21.0</v>
+      </c>
+      <c r="D21" s="21">
+        <v>4.0</v>
+      </c>
+      <c r="E21" s="23">
+        <v>5.0</v>
+      </c>
+      <c r="F21" s="24"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="25">
+        <v>20.0</v>
+      </c>
+      <c r="B22" s="26" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="17">
-        <v>14.0</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="18">
+      <c r="C22" s="27">
+        <v>21.0</v>
+      </c>
+      <c r="D22" s="25">
         <v>5.0</v>
       </c>
-      <c r="D16" s="17">
-        <v>3.0</v>
-      </c>
-      <c r="E16" s="18">
-        <v>3.0</v>
-      </c>
-      <c r="F16" s="19"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="17">
-        <v>15.0</v>
-      </c>
-      <c r="B17" s="18" t="s">
+      <c r="E22" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="F22" s="28"/>
+      <c r="G22" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="18">
-        <v>8.0</v>
-      </c>
-      <c r="D17" s="17">
-        <v>3.0</v>
-      </c>
-      <c r="E17" s="18">
-        <v>3.0</v>
-      </c>
-      <c r="F17" s="19"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="17">
-        <v>16.0</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="18">
-        <v>13.0</v>
-      </c>
-      <c r="D18" s="17">
-        <v>3.0</v>
-      </c>
-      <c r="E18" s="18">
-        <v>3.0</v>
-      </c>
-      <c r="F18" s="19"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="20">
-        <v>17.0</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="21">
-        <v>21.0</v>
-      </c>
-      <c r="D19" s="20">
-        <v>4.0</v>
-      </c>
-      <c r="E19" s="21">
-        <v>4.0</v>
-      </c>
-      <c r="F19" s="22"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="23">
-        <v>18.0</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="25">
-        <v>21.0</v>
-      </c>
-      <c r="D20" s="23">
-        <v>4.0</v>
-      </c>
-      <c r="E20" s="25">
-        <v>5.0</v>
-      </c>
-      <c r="F20" s="26"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="27">
-        <v>19.0</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="29">
-        <v>21.0</v>
-      </c>
-      <c r="D21" s="27">
-        <v>5.0</v>
-      </c>
-      <c r="E21" s="28">
-        <v>6.0</v>
-      </c>
-      <c r="F21" s="30"/>
-      <c r="G21" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="32"/>
     </row>
     <row r="23">
-      <c r="A23" s="33"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="33"/>
+      <c r="A23" s="29"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="30"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="31"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="31"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1146,24 +1123,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
@@ -1174,13 +1151,13 @@
         <v>5.0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>42</v>
+        <v>36</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>37</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F3" s="9">
         <f>COUNTIF(B3:B46,1)</f>
@@ -1195,13 +1172,13 @@
         <v>13.0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>45</v>
+        <v>36</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>40</v>
       </c>
       <c r="F4" s="9">
         <f>COUNTIF(B3:B46,2)</f>
@@ -1216,13 +1193,13 @@
         <v>2.0</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>47</v>
+      <c r="E5" s="33" t="s">
+        <v>42</v>
       </c>
       <c r="F5" s="9">
         <f>COUNTIF(B3:B46,3)</f>
@@ -1237,13 +1214,13 @@
         <v>3.0</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>49</v>
+        <v>36</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>44</v>
       </c>
       <c r="F6" s="9">
         <f>COUNTIF(B3:B46,5)</f>
@@ -1258,13 +1235,13 @@
         <v>3.0</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>51</v>
+        <v>36</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>46</v>
       </c>
       <c r="F7" s="9">
         <f>COUNTIF(B3:B46,8)</f>
@@ -1279,15 +1256,15 @@
         <v>8.0</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="37">
+        <v>36</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="35">
         <f>COUNTIF(B3:B46,13)</f>
         <v>3</v>
       </c>
@@ -1300,10 +1277,10 @@
         <v>13.0</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>55</v>
+        <v>49</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>50</v>
       </c>
       <c r="F9" s="9">
         <f>COUNTIF(B3:B46,21)</f>
@@ -1318,10 +1295,10 @@
         <v>2.0</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>56</v>
+        <v>49</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11">
@@ -1332,10 +1309,10 @@
         <v>3.0</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12">
@@ -1346,10 +1323,10 @@
         <v>5.0</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13">
@@ -1360,10 +1337,10 @@
         <v>8.0</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14">
@@ -1374,10 +1351,10 @@
         <v>5.0</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>60</v>
+        <v>36</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="15">
@@ -1388,10 +1365,10 @@
         <v>2.0</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16">
@@ -1402,10 +1379,10 @@
         <v>13.0</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17">
@@ -1416,10 +1393,10 @@
         <v>5.0</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18">
@@ -1430,10 +1407,10 @@
         <v>8.0</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
@@ -1444,10 +1421,10 @@
         <v>1.0</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20">
@@ -1458,10 +1435,10 @@
         <v>1.0</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="21">
@@ -1472,10 +1449,10 @@
         <v>8.0</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22">
@@ -1486,14 +1463,14 @@
         <v>1.0</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24">
-      <c r="E24" s="39"/>
+      <c r="E24" s="37"/>
     </row>
   </sheetData>
   <autoFilter ref="$B$3:$B$22"/>

--- a/Documentation/EECS 582 Requirements.xlsx
+++ b/Documentation/EECS 582 Requirements.xlsx
@@ -4,17 +4,14 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Requirements Stack" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Agile Reference Stories" sheetId="2" r:id="rId5"/>
   </sheets>
-  <definedNames>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'Agile Reference Stories'!$B$3:$B$22</definedName>
-  </definedNames>
+  <definedNames/>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>REQUIREMENTS STACK:</t>
   </si>
@@ -92,6 +89,21 @@
   </si>
   <si>
     <t>Back end integration with front end</t>
+  </si>
+  <si>
+    <t>Break up functions to allow exclusions from processing</t>
+  </si>
+  <si>
+    <t>Front end support to exclude images from scraped site</t>
+  </si>
+  <si>
+    <t>Store past computations in database</t>
+  </si>
+  <si>
+    <t>Create demo site to show precomputed results</t>
+  </si>
+  <si>
+    <t>OAuth Integration to store past results</t>
   </si>
   <si>
     <t>Create API for embedded use</t>
@@ -105,159 +117,13 @@
   <si>
     <t>Subject to dropping if we need to push any of the
 previous sprints further than expected</t>
-  </si>
-  <si>
-    <t>AGILE REFERENCE STORIES:</t>
-  </si>
-  <si>
-    <t>Ref Story no.</t>
-  </si>
-  <si>
-    <t>Story pool/bucket</t>
-  </si>
-  <si>
-    <t>Story source</t>
-  </si>
-  <si>
-    <t>Summary</t>
-  </si>
-  <si>
-    <t>1,2,3,5,8,13,21</t>
-  </si>
-  <si>
-    <t>EECS 581 Project 1</t>
-  </si>
-  <si>
-    <t>Setting up the game environment: creating classes for each object in
-the game, A ship, a player, a board, and a game instance. Along with 
-all of the functions inside that would be needed, i.e for player a sunk 
-ship checker to see if any ships aren’t sunk</t>
-  </si>
-  <si>
-    <t>Number of 1s</t>
-  </si>
-  <si>
-    <t>The main game loop logic using the setup give: create logic for player
-turns, functions to do display, functions to create ships for players</t>
-  </si>
-  <si>
-    <t>Number of 2s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drawing ships: Add logic to convert board coordinates to on screen pixels to allow for accurate ship appearance. Orient the ship according to how it's placed on the board. Create function for drawing ships each turn based on the active player. </t>
-  </si>
-  <si>
-    <t>Number of 3s</t>
-  </si>
-  <si>
-    <t>Destroying a ship: logic to sink a ship, once all sections of a ship have
- been hit, create some way to confirm that the ship has sunk, either a 
-method or an attribute.</t>
-  </si>
-  <si>
-    <t>Number of 5s</t>
-  </si>
-  <si>
-    <t>Displaying per player: Create a system to use display logic to show 
-only one players ships at a time. If player 1 is active, show all shots
-taken on both boards, but only show player 1’s ships on the correct
-board.</t>
-  </si>
-  <si>
-    <t>Number of 8s</t>
-  </si>
-  <si>
-    <t>Ending the game: once a player has sunk all of the enemies ships,
-display the win screen with that player's number displayed as winner.
-If player 2 has no ships unsunk, then display win screen for player 1.</t>
-  </si>
-  <si>
-    <t>Number of 13s</t>
-  </si>
-  <si>
-    <t>EECS 581 Project 2</t>
-  </si>
-  <si>
-    <t>Ai opponent: create an ai opponent with 3 levels of difficulty. Easy
-where it shoots randomly, medium where it shoots randomly until it
-hits something, at which point it shoots orthogonally to sink a ship,
-and hard, which just shoots every ship coord in order.</t>
-  </si>
-  <si>
-    <t>Super shot: create an option to do a 3x3 shot for the player. Shot
-shoots in a 3x3 square centered on given coords. b2s would result
-in a1-c3 being shot. Shots off the board are ignored.</t>
-  </si>
-  <si>
-    <t>Ship placement logic: checking not only if the selected coordinate is
-a valid placement but also the coordinates the ship extends into are
-valid as well. If not, ask the player to replace the ship until they give
-a valid placement.</t>
-  </si>
-  <si>
-    <t>Creating assets: creating assets for ships, hit markers, and sunk
-markers so that the are the correct size and scale. Also ensure
-that colors are easily visible and convey information to the player</t>
-  </si>
-  <si>
-    <t>User input interpretation: parse input strings to ensure valid input, then
-convert that input into the correct functions. Placing ships, shooting at
-coordinates, and using super shots</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PyGame setup: Create the basic structure for the PyGame class to interpret Battleship in PyGame. Includes basic methods and structure that will be used for more complex operations later. </t>
-  </si>
-  <si>
-    <t>Fix previous group's errors: placing a ship that extends into an invalid
-coordinate makes it impossible to place any ships. Each player is able
-to see the opponent’s board when the turn switches.</t>
-  </si>
-  <si>
-    <t>EECS 678 Quash</t>
-  </si>
-  <si>
-    <t>A Unix pipe connects the STDOUT (standard output) file descriptor
-of the first process to the STDIN (standard input) of the second.
-When the first process writes to its STDOUT, that output can be
-immediately read (from STDIN) by the second process</t>
-  </si>
-  <si>
-    <t>Single commands without arguments, such as ls which lists the files
-and directories inside of the current working directory. Does not take
-any arguments or parameters following the command.</t>
-  </si>
-  <si>
-    <t>Single commands with arguments, such as ls -a / which represent all
-files, including hidden files and directories in the listing. Takes one or
-more arguments following the command.</t>
-  </si>
-  <si>
-    <t>Change directory: Change current working directory. This updates both
-the actual working directory and the PWD environment variable.</t>
-  </si>
-  <si>
-    <t>Print the absolute path of the current working directory. Ensure printing
-out the actual working directory and not just the PWD environment
-variable.</t>
-  </si>
-  <si>
-    <t>Jobs: print all of the currently running background processes in the
-format: "[JOBID] PID COMMAND" where JOBID is a unique positive
-integer quash assigns to the job to identify it, PID is the PID of the
-child process used for the job, and COMMAND is the command used
-to invoke the job.</t>
-  </si>
-  <si>
-    <t>Echo with single argument: Print a string given as an argument. The
-output format should be the same as bash (a string followed by new line
-'\n')</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -278,21 +144,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="&quot;Google Sans&quot;"/>
-    </font>
-    <font>
-      <sz val="9.0"/>
-      <color rgb="FF000000"/>
-      <name val="&quot;Google Sans Mono&quot;"/>
     </font>
   </fonts>
   <fills count="9">
@@ -322,6 +173,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFEA9999"/>
+        <bgColor rgb="FFEA9999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF9CB9C"/>
         <bgColor rgb="FFF9CB9C"/>
       </patternFill>
@@ -338,12 +195,6 @@
         <bgColor rgb="FFD9D2E9"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -351,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="33">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -396,13 +247,13 @@
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
@@ -416,38 +267,23 @@
     <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -457,10 +293,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -734,7 +566,7 @@
       </c>
       <c r="H3" s="9">
         <f>SUM(C3:C23)</f>
-        <v>161</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4">
@@ -975,7 +807,7 @@
       </c>
       <c r="F16" s="17">
         <f>SUM(C16:C19)</f>
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
@@ -986,7 +818,7 @@
         <v>23</v>
       </c>
       <c r="C17" s="16">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="D17" s="15">
         <v>3.0</v>
@@ -1036,444 +868,153 @@
       <c r="A20" s="18">
         <v>18.0</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="19">
-        <v>21.0</v>
+      <c r="C20" s="18">
+        <v>8.0</v>
       </c>
       <c r="D20" s="18">
         <v>4.0</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="18">
         <v>4.0</v>
       </c>
-      <c r="F20" s="20"/>
+      <c r="F20" s="19">
+        <f>Sum(C20:C23)</f>
+        <v>34</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="21">
+      <c r="A21" s="18">
         <v>19.0</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="D21" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="E21" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="F21" s="19"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="18">
+        <v>20.0</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="18">
+        <v>8.0</v>
+      </c>
+      <c r="D22" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="E22" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="F22" s="19"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="20">
         <v>21.0</v>
       </c>
-      <c r="D21" s="21">
+      <c r="B23" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="18">
+        <v>13.0</v>
+      </c>
+      <c r="D23" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="E23" s="18">
         <v>4.0</v>
       </c>
-      <c r="E21" s="23">
+      <c r="F23" s="19"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="21">
+        <v>22.0</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="22">
+        <v>8.0</v>
+      </c>
+      <c r="D24" s="23">
+        <v>6.0</v>
+      </c>
+      <c r="E24" s="21">
         <v>5.0</v>
       </c>
-      <c r="F21" s="24"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="25">
-        <v>20.0</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="27">
+      <c r="F24" s="24"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="21">
+        <v>23.0</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="23">
         <v>21.0</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D25" s="21">
+        <v>4.0</v>
+      </c>
+      <c r="E25" s="23">
         <v>5.0</v>
       </c>
-      <c r="E22" s="26">
+      <c r="F25" s="24"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="25">
+        <v>24.0</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="27">
+        <v>21.0</v>
+      </c>
+      <c r="D26" s="25">
+        <v>4.0</v>
+      </c>
+      <c r="E26" s="27">
         <v>6.0</v>
       </c>
-      <c r="F22" s="28"/>
-      <c r="G22" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="29"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="30"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="31"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="31"/>
+      <c r="F26" s="28"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="29">
+        <v>25.0</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="31">
+        <v>21.0</v>
+      </c>
+      <c r="D27" s="29">
+        <v>5.0</v>
+      </c>
+      <c r="E27" s="30">
+        <v>6.0</v>
+      </c>
+      <c r="F27" s="32"/>
+      <c r="G27" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="11.88"/>
-    <col customWidth="1" min="2" max="2" width="14.0"/>
-    <col customWidth="1" min="3" max="3" width="15.75"/>
-    <col customWidth="1" min="4" max="4" width="52.75"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="9">
-        <f>COUNTIF(B3:B46,1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="B4" s="4">
-        <v>13.0</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="9">
-        <f>COUNTIF(B3:B46,2)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="B5" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="9">
-        <f>COUNTIF(B3:B46,3)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="B6" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="9">
-        <f>COUNTIF(B3:B46,5)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="B7" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="9">
-        <f>COUNTIF(B3:B46,8)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="B8" s="4">
-        <v>8.0</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="35">
-        <f>COUNTIF(B3:B46,13)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4">
-        <v>7.0</v>
-      </c>
-      <c r="B9" s="4">
-        <v>13.0</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="9">
-        <f>COUNTIF(B3:B46,21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4">
-        <v>8.0</v>
-      </c>
-      <c r="B10" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4">
-        <v>9.0</v>
-      </c>
-      <c r="B11" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="B12" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="4">
-        <v>11.0</v>
-      </c>
-      <c r="B13" s="4">
-        <v>8.0</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="4">
-        <v>12.0</v>
-      </c>
-      <c r="B14" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4">
-        <v>13.0</v>
-      </c>
-      <c r="B15" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="4">
-        <v>14.0</v>
-      </c>
-      <c r="B16" s="4">
-        <v>13.0</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="B17" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="4">
-        <v>16.0</v>
-      </c>
-      <c r="B18" s="4">
-        <v>8.0</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="4">
-        <v>17.0</v>
-      </c>
-      <c r="B19" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="4">
-        <v>18.0</v>
-      </c>
-      <c r="B20" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="4">
-        <v>19.0</v>
-      </c>
-      <c r="B21" s="4">
-        <v>8.0</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="B22" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="E24" s="37"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="$B$3:$B$22"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/Documentation/EECS 582 Requirements.xlsx
+++ b/Documentation/EECS 582 Requirements.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>REQUIREMENTS STACK:</t>
   </si>
@@ -103,10 +103,28 @@
     <t>Create demo site to show precomputed results</t>
   </si>
   <si>
-    <t>OAuth Integration to store past results</t>
-  </si>
-  <si>
-    <t>Create API for embedded use</t>
+    <t>Research chrome extension implementation</t>
+  </si>
+  <si>
+    <t>Implement Chrome extension backend</t>
+  </si>
+  <si>
+    <t>Beautify Chrome extension to look like main app</t>
+  </si>
+  <si>
+    <t>Beautify front end</t>
+  </si>
+  <si>
+    <t>Implement OAuth to allow for user profiles</t>
+  </si>
+  <si>
+    <t>Create website history page for user data</t>
+  </si>
+  <si>
+    <t>Explore using Tailwind to beautify front end</t>
+  </si>
+  <si>
+    <t>Improve web scraper (get 100% of images)</t>
   </si>
   <si>
     <t>API Integration and Testing</t>
@@ -565,8 +583,8 @@
         <v>33</v>
       </c>
       <c r="H3" s="9">
-        <f>SUM(C3:C23)</f>
-        <v>135</v>
+        <f>SUM(C3:C33)</f>
+        <v>213</v>
       </c>
     </row>
     <row r="4">
@@ -947,7 +965,7 @@
         <v>30</v>
       </c>
       <c r="C24" s="22">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="D24" s="23">
         <v>6.0</v>
@@ -955,7 +973,10 @@
       <c r="E24" s="21">
         <v>5.0</v>
       </c>
-      <c r="F24" s="24"/>
+      <c r="F24" s="24">
+        <f>SUM(C24:C31)</f>
+        <v>36</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="21">
@@ -965,53 +986,161 @@
         <v>31</v>
       </c>
       <c r="C25" s="23">
+        <v>5.0</v>
+      </c>
+      <c r="D25" s="21">
+        <v>6.0</v>
+      </c>
+      <c r="E25" s="23">
+        <v>5.0</v>
+      </c>
+      <c r="F25" s="24"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="21">
+        <v>24.0</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="23">
+        <v>5.0</v>
+      </c>
+      <c r="D26" s="21">
+        <v>7.0</v>
+      </c>
+      <c r="E26" s="23">
+        <v>5.0</v>
+      </c>
+      <c r="F26" s="24"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="21">
+        <v>25.0</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="23">
+        <v>5.0</v>
+      </c>
+      <c r="D27" s="21">
+        <v>7.0</v>
+      </c>
+      <c r="E27" s="23">
+        <v>5.0</v>
+      </c>
+      <c r="F27" s="24"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="21">
+        <v>26.0</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="23">
+        <v>5.0</v>
+      </c>
+      <c r="D28" s="21">
+        <v>7.0</v>
+      </c>
+      <c r="E28" s="23">
+        <v>5.0</v>
+      </c>
+      <c r="F28" s="24"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="21">
+        <v>27.0</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="23">
+        <v>5.0</v>
+      </c>
+      <c r="D29" s="21">
+        <v>6.0</v>
+      </c>
+      <c r="E29" s="23">
+        <v>5.0</v>
+      </c>
+      <c r="F29" s="24"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="21">
+        <v>28.0</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="23">
+        <v>3.0</v>
+      </c>
+      <c r="D30" s="21">
+        <v>6.0</v>
+      </c>
+      <c r="E30" s="23">
+        <v>5.0</v>
+      </c>
+      <c r="F30" s="24"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="21">
+        <v>29.0</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="23">
+        <v>5.0</v>
+      </c>
+      <c r="D31" s="21">
+        <v>6.0</v>
+      </c>
+      <c r="E31" s="23">
+        <v>5.0</v>
+      </c>
+      <c r="F31" s="24"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="25">
+        <v>30.0</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="27">
         <v>21.0</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D32" s="25">
         <v>4.0</v>
       </c>
-      <c r="E25" s="23">
-        <v>5.0</v>
-      </c>
-      <c r="F25" s="24"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="25">
-        <v>24.0</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="27">
+      <c r="E32" s="27">
+        <v>6.0</v>
+      </c>
+      <c r="F32" s="28"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="29">
+        <v>31.0</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="31">
         <v>21.0</v>
       </c>
-      <c r="D26" s="25">
-        <v>4.0</v>
-      </c>
-      <c r="E26" s="27">
+      <c r="D33" s="29">
+        <v>5.0</v>
+      </c>
+      <c r="E33" s="30">
         <v>6.0</v>
       </c>
-      <c r="F26" s="28"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="29">
-        <v>25.0</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="31">
-        <v>21.0</v>
-      </c>
-      <c r="D27" s="29">
-        <v>5.0</v>
-      </c>
-      <c r="E27" s="30">
-        <v>6.0</v>
-      </c>
-      <c r="F27" s="32"/>
-      <c r="G27" s="4" t="s">
-        <v>34</v>
+      <c r="F33" s="32"/>
+      <c r="G33" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
